--- a/biology/Botanique/Annesorhiza/Annesorhiza.xlsx
+++ b/biology/Botanique/Annesorhiza/Annesorhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annesorhiza est un  genre de plantes de la sous-famille des Apioideae dans la famille des Apiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Annesorhiza est décrit en 1826 par les botanistes allemands Adelbert von Chamisso et Diederich Franz Leonhard von Schlechtendal[1].
-Le genre Acroglyphe E.Mey. ex Koso-Pol. (1843) est considéré comme un synonyme selon Plants of the World en 2020[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Annesorhiza est décrit en 1826 par les botanistes allemands Adelbert von Chamisso et Diederich Franz Leonhard von Schlechtendal.
+Le genre Acroglyphe E.Mey. ex Koso-Pol. (1843) est considéré comme un synonyme selon Plants of the World en 2020.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Annesorhiza est présent de l'Angola à l'Afrique du Sud[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Annesorhiza est présent de l'Angola à l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -574,16 +590,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Annesorhiza comprend 5 espèces selon NCBI en 2020[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Annesorhiza comprend 5 espèces selon NCBI en 2020 :
 Annesorhiza altiscapa
 Annesorhiza fibrosa
 Annesorhiza filicaulis
 Annesorhiza latifolia
 Annesorhiza macrocarpa
-Le genre Annesorhiza comprend 18 espèces selon Plants of the World en 2020[2] :
-Le genre Annesorhiza comprend 15 espèces selon The Plants List en 2020[3] :
+Le genre Annesorhiza comprend 18 espèces selon Plants of the World en 2020 :
+Le genre Annesorhiza comprend 15 espèces selon The Plants List en 2020 :
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces du genre sont notables pour leurs composés aromatiques et sont utilisées comme ingrédients culinaires. Certaines espèces se distinguent par leur taux de dérivés phenylpropènes, tels que le nothoapiole[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces du genre sont notables pour leurs composés aromatiques et sont utilisées comme ingrédients culinaires. Certaines espèces se distinguent par leur taux de dérivés phenylpropènes, tels que le nothoapiole.
 </t>
         </is>
       </c>
